--- a/labWork10.xlsx
+++ b/labWork10.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Сортировка" sheetId="1" r:id="rId1"/>
-    <sheet name="Итоги" sheetId="2" r:id="rId2"/>
-    <sheet name="Фильтр" sheetId="3" r:id="rId3"/>
+    <sheet name="Итоги" sheetId="4" r:id="rId2"/>
+    <sheet name="Фильтр" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Фильтр!$C$4:$G$19</definedName>
@@ -520,7 +520,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
@@ -834,7 +834,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B5:G19">
+  <sortState ref="C5:G19">
     <sortCondition ref="C5:C19"/>
     <sortCondition ref="D5:D19"/>
   </sortState>
@@ -851,17 +851,17 @@
   <dimension ref="B2:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
     </row>
     <row r="5" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="7" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="9" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="12" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="14" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="15" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="16" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="18" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>9</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="19" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="20" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="22" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="24" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="25" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="26" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
@@ -1339,16 +1339,16 @@
   <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
@@ -1382,7 +1382,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -1422,9 +1422,9 @@
         <v>171000</v>
       </c>
     </row>
-    <row r="7" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -1443,7 +1443,7 @@
         <v>114000</v>
       </c>
     </row>
-    <row r="8" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>4</v>
       </c>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="9" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="10" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="11" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="13" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="14" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -1590,9 +1590,9 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="15" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="16" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
@@ -1704,8 +1704,8 @@
     </filterColumn>
     <filterColumn colId="3">
       <customFilters and="1">
-        <customFilter operator="greaterThan" val="3000"/>
-        <customFilter operator="lessThan" val="20000"/>
+        <customFilter operator="greaterThan" val="2000"/>
+        <customFilter operator="lessThanOrEqual" val="20000"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
